--- a/public/giai phap.xlsx
+++ b/public/giai phap.xlsx
@@ -15,10 +15,10 @@
     <sheet name="101 bi quyet dam phan" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'36 kế'!$A$1:$N$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'36 kế'!$J$1:$O$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'phuong phap phan tich'!$D$1:$F$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'thuyet phuc'!$A$1:$G$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'thuyet phuc'!$A$1:$G$22</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="599">
   <si>
     <t>STT</t>
   </si>
@@ -757,18 +757,6 @@
     <t>Một tổ chức từ thiện yêu cầu quyên góp lớn, bị từ chối, sau đó đề nghị mua kẹo giá rẻ để ủng hộ. Nhiều người đồng ý mua kẹo vì cảm thấy cần đáp lại sự nhượng bộ.</t>
   </si>
   <si>
-    <t>Tạo cam kết ban đầu</t>
-  </si>
-  <si>
-    <t>Thí nghiệm về bảng hiệu an toàn giao thông (Freedman &amp; Fraser, 1966, "Compliance Without Pressure")</t>
-  </si>
-  <si>
-    <t>Khi cần đối phương đồng ý với yêu cầu lớn, nhưng cần xây dựng cam kết trước</t>
-  </si>
-  <si>
-    <t>1. Đưa ra yêu cầu nhỏ, dễ chấp nhận. 2. Đợi đối phương đồng ý và thực hiện. 3. Đưa ra yêu cầu lớn hơn, tận dụng cam kết trước đó.</t>
-  </si>
-  <si>
     <t>Nhóm nghiên cứu yêu cầu cư dân treo bảng nhỏ về an toàn giao thông. Sau đó, họ yêu cầu treo bảng lớn hơn. 76% những người đồng ý treo bảng nhỏ cũng đồng ý treo bảng lớn, so với 17% ở nhóm không được yêu cầu trước.</t>
   </si>
   <si>
@@ -817,9 +805,6 @@
     <t>1. Đưa ra yêu cầu nhỏ, dễ chấp nhận. 2. Đợi đối phương đồng ý và thực hiện. 3. Đưa ra yêu cầu lớn hơn, dựa trên cam kết trước.</t>
   </si>
   <si>
-    <t>Cư dân được yêu cầu treo bảng nhỏ về an toàn giao thông. Sau đó, 76% đồng ý treo bảng lớn hơn, so với 17% ở nhóm không có cam kết trước.</t>
-  </si>
-  <si>
     <t>Tận dụng cam kết công khai</t>
   </si>
   <si>
@@ -1600,9 +1585,6 @@
     <t>10_chạy_thay mận đổi đào</t>
   </si>
   <si>
-    <t>1_giả heo ăn hổ . Hư trương thanh thế. Khổ nhục kế|2_Cầm tặc cầm vương. Tiên phát chế nhân. Dĩ dật đãi lao. Ám, độc, bẫy, dụ, phạm quy. Không thành kế|3_Hóa thù thành bạn, Muốn bắt phải thả. Mượn lực lượng - mượn xác hoàn hồn. tập hợp đồng minh|4_Dương đông kích tây. Ám độ trần thương. Man thiên quá hải. Điệu hổ ly sơn|5_Rút củi đáy nồi. Thâu lương hoán trụ. Mượn đao giết người, Mượn hoàn cảnh, Mượn thời cơ. hãm hại người thân. vu oan giá họa|6_Kế li gián. tin đồn, gây rối-Vô trung sinh hữu. thuận tay dắt dê - Thuận thủ khiên dương. Sấn hỏa đả kiếp. Lạc tỉnh hạ thạch|7_Thả tép bắt tôm. Mỹ nhân kế|8_Chỉ tang mắng hòe. Giết gà dọa khỉ. Đánh rắn động cỏ|9_Khích tướng kế. Kích kế|10_Tẩu kế. Kim thiền thoát xác. thay mận đổi đào</t>
-  </si>
-  <si>
     <t>Giải pháp</t>
   </si>
   <si>
@@ -1724,6 +1706,156 @@
   </si>
   <si>
     <t>0_tổng hợp</t>
+  </si>
+  <si>
+    <t>giả heo ăn hổ . Hư trương thanh thế</t>
+  </si>
+  <si>
+    <t>giả heo ăn hổ . Hư trương thanh thế. Khổ nhục kế</t>
+  </si>
+  <si>
+    <t>Cầm tặc cầm vương. Tiên phát chế nhân</t>
+  </si>
+  <si>
+    <t>Cầm tặc cầm vương. Tiên phát chế nhân. Dĩ dật đãi lao</t>
+  </si>
+  <si>
+    <t>Cầm tặc cầm vương. Tiên phát chế nhân. Dĩ dật đãi lao. Ám, độc, bẫy, dụ, phạm quy</t>
+  </si>
+  <si>
+    <t>Cầm tặc cầm vương. Tiên phát chế nhân. Dĩ dật đãi lao. Ám, độc, bẫy, dụ, phạm quy. Không thành kế</t>
+  </si>
+  <si>
+    <t>Hóa thù thành bạn, Muốn bắt phải thả. Mượn lực lượng - mượn xác hoàn hồn</t>
+  </si>
+  <si>
+    <t>Hóa thù thành bạn, Muốn bắt phải thả. Mượn lực lượng - mượn xác hoàn hồn. tập hợp đồng minh</t>
+  </si>
+  <si>
+    <t>Dương đông kích tây. Ám độ trần thương</t>
+  </si>
+  <si>
+    <t>Dương đông kích tây. Ám độ trần thương. Man thiên quá hải</t>
+  </si>
+  <si>
+    <t>Dương đông kích tây. Ám độ trần thương. Man thiên quá hải. Điệu hổ ly sơn</t>
+  </si>
+  <si>
+    <t>Rút củi đáy nồi. Thâu lương hoán trụ</t>
+  </si>
+  <si>
+    <t>Rút củi đáy nồi. Thâu lương hoán trụ. Mượn đao giết người, Mượn hoàn cảnh, Mượn thời cơ</t>
+  </si>
+  <si>
+    <t>Rút củi đáy nồi. Thâu lương hoán trụ. Mượn đao giết người, Mượn hoàn cảnh, Mượn thời cơ. hãm hại người thân</t>
+  </si>
+  <si>
+    <t>Rút củi đáy nồi. Thâu lương hoán trụ. Mượn đao giết người, Mượn hoàn cảnh, Mượn thời cơ. hãm hại người thân. vu oan giá họa</t>
+  </si>
+  <si>
+    <t>Kế li gián. tin đồn, gây rối-Vô trung sinh hữu</t>
+  </si>
+  <si>
+    <t>Kế li gián. tin đồn, gây rối-Vô trung sinh hữu. thuận tay dắt dê - Thuận thủ khiên dương</t>
+  </si>
+  <si>
+    <t>Kế li gián. tin đồn, gây rối-Vô trung sinh hữu. thuận tay dắt dê - Thuận thủ khiên dương. Sấn hỏa đả kiếp</t>
+  </si>
+  <si>
+    <t>Kế li gián. tin đồn, gây rối-Vô trung sinh hữu. thuận tay dắt dê - Thuận thủ khiên dương. Sấn hỏa đả kiếp. Lạc tỉnh hạ thạch</t>
+  </si>
+  <si>
+    <t>Thả tép bắt tôm. Mỹ nhân kế</t>
+  </si>
+  <si>
+    <t>Chỉ tang mắng hòe. Giết gà dọa khỉ</t>
+  </si>
+  <si>
+    <t>Chỉ tang mắng hòe. Giết gà dọa khỉ. Đánh rắn động cỏ</t>
+  </si>
+  <si>
+    <t>Khích tướng kế. Kích kế</t>
+  </si>
+  <si>
+    <t>Tẩu kế. Kim thiền thoát xác</t>
+  </si>
+  <si>
+    <t>Tẩu kế. Kim thiền thoát xác. thay mận đổi đào</t>
+  </si>
+  <si>
+    <t>1_giả vờ_giả heo ăn hổ . Hư trương thanh thế. Khổ nhục kế.</t>
+  </si>
+  <si>
+    <t>2_kỹ năng_Cầm tặc cầm vương. Tiên phát chế nhân. Dĩ dật đãi lao. Ám, độc, bẫy, dụ, phạm quy. Không thành kế.</t>
+  </si>
+  <si>
+    <t>3_thu phục_Hóa thù thành bạn, Muốn bắt phải thả. Mượn lực lượng - mượn xác hoàn hồn. tập hợp đồng minh.</t>
+  </si>
+  <si>
+    <t>4_đánh lạc hướng_Dương đông kích tây. Ám độ trần thương. Man thiên quá hải. Điệu hổ ly sơn.</t>
+  </si>
+  <si>
+    <t>5_quan hệ 2 bên_Rút củi đáy nồi. Thâu lương hoán trụ. Mượn đao giết người, Mượn hoàn cảnh, Mượn thời cơ. hãm hại người thân. vu oan giá họa.</t>
+  </si>
+  <si>
+    <t>6_quan hệ 3 bên_Kế li gián. tin đồn, gây rối-Vô trung sinh hữu. thuận tay dắt dê - Thuận thủ khiên dương. Sấn hỏa đả kiếp. Lạc tỉnh hạ thạch.</t>
+  </si>
+  <si>
+    <t>7_mong_Thả tép bắt tôm. Mỹ nhân kế.</t>
+  </si>
+  <si>
+    <t>8_lo_Chỉ tang mắng hòe. Giết gà dọa khỉ. Đánh rắn động cỏ.</t>
+  </si>
+  <si>
+    <t>9_tính cách_Khích tướng kế. Kích kế.</t>
+  </si>
+  <si>
+    <t>10_chạy_Tẩu kế. Kim thiền thoát xác. thay mận đổi đào.</t>
+  </si>
+  <si>
+    <t>Li gián, tin đồn, gây rối, thừa cơ.|</t>
+  </si>
+  <si>
+    <t>giả heo khổ nhục hư trương.|</t>
+  </si>
+  <si>
+    <t>cầm vương, ám, độc, bẫy, dụ, yếu, quy.| Tiên phát, Dĩ dật , không thành.|</t>
+  </si>
+  <si>
+    <t>Muốn bắt phải thả, thu phục nhân tâm. |Hóa thù thành bạn, đồng minh. Chỗ không lãnh đạo, Mượn xác hoàn hồn.|</t>
+  </si>
+  <si>
+    <t>Dương đông. Ám độ trần thương.|Man thiên quá hải. Điệu hổ ly sơn.|</t>
+  </si>
+  <si>
+    <t>Rút củi đáy nồi, thâu lương.|Mượn đao, hoàn cảnh, giá họa vu oan.|Con tin, hãm hại người thân.|</t>
+  </si>
+  <si>
+    <t>Mỹ nhân, thả tép bắt tôm.|</t>
+  </si>
+  <si>
+    <t>Đánh rắn động cỏ, Chỉ tang, giết gà.|</t>
+  </si>
+  <si>
+    <t>Kim thiền thoát xác,thay mận đổi đào.|</t>
+  </si>
+  <si>
+    <t>khích tướng, kích động cảm tình.|</t>
+  </si>
+  <si>
+    <t>giả heo khổ nhục hư trương.|cầm vương, ám, độc, bẫy, dụ, yếu, quy.| Tiên phát, Dĩ dật , không thành.|Muốn bắt phải thả, thu phục nhân tâm. |Hóa thù thành bạn, đồng minh. Chỗ không lãnh đạo, Mượn xác hoàn hồn.|Dương đông. Ám độ trần thương.|Man thiên quá hải. Điệu hổ ly sơn.|Rút củi đáy nồi, thâu lương.|Mượn đao, hoàn cảnh, giá họa vu oan.|Con tin, hãm hại người thân.|Li gián, tin đồn, gây rối, thừa cơ.|Mỹ nhân, thả tép bắt tôm.|Đánh rắn động cỏ, Chỉ tang, giết gà.|khích tướng, kích động cảm tình.|Kim thiền thoát xác,thay mận đổi đào.|</t>
+  </si>
+  <si>
+    <t>giả heo khổ nhục hư trương. cầm vương, ám, độc, bẫy, dụ, yếu, quy.| Tiên phát, Dĩ dật , không thành. Muốn bắt phải thả, thu phục nhân tâm. |Hóa thù thành bạn, đồng minh. Chỗ không lãnh đạo, Mượn xác hoàn hồn.|Dương đông. Ám độ trần thương. Man thiên quá h</t>
+  </si>
+  <si>
+    <t>Hóa thù thành bạn, đồng minh. Chỗ không lãnh đạo, Mượn xác hoàn hồn.|Dương đông. Ám độ trần thương. Man thiên quá hải. Điệu hổ ly sơn.</t>
+  </si>
+  <si>
+    <t>Rút củi đáy nồi, thâu lương. Mượn đao, hoàn cảnh, giá họa vu oan.|Con tin, hãm hại người thân. Li gián, tin đồn, gây rối, thừa cơ.</t>
+  </si>
+  <si>
+    <t>Mỹ nhân, thả tép bắt tôm. Đánh rắn động cỏ, Chỉ tang, giết gà.|khích tướng, kích động cảm tình.Kim thiền thoát xác,thay mận đổi đào.</t>
   </si>
 </sst>
 </file>
@@ -1789,7 +1921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
@@ -1812,6 +1944,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2114,13 +2249,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S682"/>
+  <dimension ref="A1:S685"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2:N37"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2129,9 +2264,9 @@
     <col min="8" max="8" width="22.28515625" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="29.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="5.28515625" customWidth="1"/>
+    <col min="13" max="13" width="44.5703125" customWidth="1"/>
     <col min="14" max="14" width="97.140625" style="7" customWidth="1"/>
     <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.85546875" customWidth="1"/>
@@ -2206,1058 +2341,1133 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>513</v>
+      <c r="M2" t="s">
+        <v>595</v>
+      </c>
+      <c r="N2" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I3" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>478</v>
+        <v>548</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>516</v>
+        <v>596</v>
       </c>
       <c r="N3" t="s">
-        <v>516</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I4" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>479</v>
+        <v>548</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>517</v>
+        <v>597</v>
       </c>
       <c r="N4" t="s">
-        <v>517</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I5" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J5" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>480</v>
+        <v>548</v>
       </c>
       <c r="L5" t="s">
         <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>518</v>
+        <v>598</v>
       </c>
       <c r="N5" t="s">
-        <v>518</v>
+        <v>598</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I6" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J6" t="s">
         <v>20</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="L6" t="s">
         <v>20</v>
       </c>
       <c r="M6" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="N6" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J7" t="s">
         <v>20</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="L7" t="s">
         <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="N7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I8" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J8" t="s">
         <v>20</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L8" t="s">
         <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="N8" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I9" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J9" t="s">
         <v>20</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="L9" t="s">
         <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="N9" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I10" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J10" t="s">
         <v>20</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="L10" t="s">
         <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="N10" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I11" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="L11" t="s">
         <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="N11" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I12" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J12" t="s">
         <v>20</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="L12" t="s">
         <v>20</v>
       </c>
       <c r="M12" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="N12" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I13" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J13" t="s">
         <v>20</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="L13" t="s">
         <v>20</v>
       </c>
       <c r="M13" t="s">
-        <v>469</v>
+        <v>517</v>
       </c>
       <c r="N13" t="s">
-        <v>469</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I14" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J14" t="s">
         <v>20</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="L14" t="s">
         <v>20</v>
       </c>
       <c r="M14" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="N14" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I15" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J15" t="s">
         <v>20</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="L15" t="s">
         <v>20</v>
       </c>
       <c r="M15" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="N15" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
         <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I16" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J16" t="s">
         <v>20</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="L16" t="s">
         <v>20</v>
       </c>
       <c r="M16" t="s">
-        <v>528</v>
+        <v>464</v>
       </c>
       <c r="N16" t="s">
-        <v>528</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
         <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I17" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J17" t="s">
         <v>20</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="L17" t="s">
         <v>20</v>
       </c>
       <c r="M17" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="N17" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
         <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I18" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J18" t="s">
         <v>20</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="L18" t="s">
         <v>20</v>
       </c>
       <c r="M18" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="N18" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
         <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I19" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J19" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="L19" t="s">
         <v>20</v>
       </c>
       <c r="M19" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="N19" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I20" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J20" t="s">
         <v>20</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="L20" t="s">
         <v>20</v>
       </c>
       <c r="M20" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="N20" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
         <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I21" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J21" t="s">
         <v>20</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="L21" t="s">
         <v>20</v>
       </c>
       <c r="M21" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="N21" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
         <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I22" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J22" t="s">
         <v>20</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="L22" t="s">
         <v>20</v>
       </c>
       <c r="M22" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="N22" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
         <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I23" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J23" t="s">
         <v>20</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="L23" t="s">
         <v>20</v>
       </c>
       <c r="M23" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="N23" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
         <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I24" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J24" t="s">
         <v>20</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="L24" t="s">
         <v>20</v>
       </c>
       <c r="M24" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="N24" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
         <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I25" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J25" t="s">
         <v>20</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="L25" t="s">
         <v>20</v>
       </c>
       <c r="M25" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="N25" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G26" t="s">
         <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I26" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J26" t="s">
         <v>20</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="L26" t="s">
         <v>20</v>
       </c>
       <c r="M26" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="N26" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G27" t="s">
         <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I27" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J27" t="s">
         <v>20</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="L27" t="s">
         <v>20</v>
       </c>
       <c r="M27" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="N27" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I28" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J28" t="s">
         <v>20</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="L28" t="s">
         <v>20</v>
       </c>
       <c r="M28" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="N28" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G29" t="s">
         <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I29" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J29" t="s">
         <v>20</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="L29" t="s">
         <v>20</v>
       </c>
       <c r="M29" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="N29" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G30" t="s">
         <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I30" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J30" t="s">
         <v>20</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="L30" t="s">
         <v>20</v>
       </c>
       <c r="M30" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="N30" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G31" t="s">
         <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I31" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J31" t="s">
         <v>20</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="L31" t="s">
         <v>20</v>
       </c>
       <c r="M31" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="N31" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G32" t="s">
         <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I32" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J32" t="s">
         <v>20</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="L32" t="s">
         <v>20</v>
       </c>
       <c r="M32" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="N32" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
         <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I33" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J33" t="s">
         <v>20</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="L33" t="s">
         <v>20</v>
       </c>
       <c r="M33" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="N33" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
         <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I34" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J34" t="s">
         <v>20</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="L34" t="s">
         <v>20</v>
       </c>
       <c r="M34" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="N34" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
         <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I35" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J35" t="s">
         <v>20</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="L35" t="s">
         <v>20</v>
       </c>
       <c r="M35" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="N35" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
         <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I36" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J36" t="s">
         <v>20</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="L36" t="s">
         <v>20</v>
       </c>
       <c r="M36" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="N36" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
         <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I37" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J37" t="s">
         <v>20</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="L37" t="s">
         <v>20</v>
       </c>
       <c r="M37" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="N37" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="1"/>
-      <c r="K38" s="5"/>
-      <c r="N38"/>
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s">
+        <v>508</v>
+      </c>
+      <c r="I38" t="s">
+        <v>508</v>
+      </c>
+      <c r="J38" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="L38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" t="s">
+        <v>541</v>
+      </c>
+      <c r="N38" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="1"/>
-      <c r="K39" s="5"/>
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
+        <v>508</v>
+      </c>
+      <c r="I39" t="s">
+        <v>508</v>
+      </c>
+      <c r="J39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="L39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" t="s">
+        <v>542</v>
+      </c>
+      <c r="N39" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="1"/>
-      <c r="K40" s="5"/>
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" t="s">
+        <v>508</v>
+      </c>
+      <c r="I40" t="s">
+        <v>508</v>
+      </c>
+      <c r="J40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="L40" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" t="s">
+        <v>543</v>
+      </c>
+      <c r="N40" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1"/>
       <c r="K41" s="5"/>
+      <c r="N41"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1"/>
@@ -5822,6 +6032,18 @@
     <row r="682" spans="1:11">
       <c r="A682" s="1"/>
       <c r="K682" s="5"/>
+    </row>
+    <row r="683" spans="1:11">
+      <c r="A683" s="1"/>
+      <c r="K683" s="5"/>
+    </row>
+    <row r="684" spans="1:11">
+      <c r="A684" s="1"/>
+      <c r="K684" s="5"/>
+    </row>
+    <row r="685" spans="1:11">
+      <c r="A685" s="1"/>
+      <c r="K685" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5842,27 +6064,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -7417,16 +7639,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
     <col min="6" max="6" width="63" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7435,7 +7657,7 @@
         <v>118</v>
       </c>
       <c r="B1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C1" t="s">
         <v>217</v>
@@ -7458,22 +7680,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" t="s">
         <v>238</v>
-      </c>
-      <c r="D2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7481,22 +7703,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" t="s">
         <v>243</v>
-      </c>
-      <c r="D3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G3" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7504,7 +7726,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C4" t="s">
         <v>222</v>
@@ -7527,7 +7749,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C5" t="s">
         <v>227</v>
@@ -7550,22 +7772,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G6" t="s">
         <v>232</v>
-      </c>
-      <c r="D6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E6" t="s">
-        <v>234</v>
-      </c>
-      <c r="F6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G6" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -7573,7 +7795,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C7" t="s">
         <v>248</v>
@@ -7596,7 +7818,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C8" t="s">
         <v>253</v>
@@ -7619,7 +7841,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C9" t="s">
         <v>258</v>
@@ -7642,22 +7864,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C10" t="s">
         <v>263</v>
       </c>
       <c r="D10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" t="s">
         <v>264</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>265</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>266</v>
-      </c>
-      <c r="G10" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7665,13 +7887,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" t="s">
         <v>268</v>
-      </c>
-      <c r="D11" t="s">
-        <v>259</v>
       </c>
       <c r="E11" t="s">
         <v>269</v>
@@ -7688,22 +7910,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" t="s">
+        <v>276</v>
+      </c>
+      <c r="F12" t="s">
+        <v>277</v>
+      </c>
+      <c r="G12" t="s">
         <v>278</v>
-      </c>
-      <c r="C12" t="s">
-        <v>272</v>
-      </c>
-      <c r="D12" t="s">
-        <v>273</v>
-      </c>
-      <c r="E12" t="s">
-        <v>274</v>
-      </c>
-      <c r="F12" t="s">
-        <v>275</v>
-      </c>
-      <c r="G12" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -7711,13 +7933,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D13" t="s">
         <v>280</v>
-      </c>
-      <c r="D13" t="s">
-        <v>259</v>
       </c>
       <c r="E13" t="s">
         <v>281</v>
@@ -7734,22 +7956,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C14" t="s">
         <v>284</v>
       </c>
       <c r="D14" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" t="s">
         <v>285</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>286</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>287</v>
-      </c>
-      <c r="G14" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -7757,22 +7979,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C15" t="s">
         <v>289</v>
       </c>
       <c r="D15" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="E15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7780,22 +8002,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C16" t="s">
         <v>294</v>
       </c>
       <c r="D16" t="s">
+        <v>254</v>
+      </c>
+      <c r="E16" t="s">
         <v>295</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>296</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>297</v>
-      </c>
-      <c r="G16" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -7803,22 +8025,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D17" t="s">
+        <v>254</v>
+      </c>
+      <c r="E17" t="s">
         <v>299</v>
       </c>
-      <c r="D17" t="s">
-        <v>259</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>300</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>301</v>
-      </c>
-      <c r="G17" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -7826,13 +8048,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C18" t="s">
         <v>303</v>
       </c>
       <c r="D18" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E18" t="s">
         <v>304</v>
@@ -7849,22 +8071,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C19" t="s">
+        <v>307</v>
+      </c>
+      <c r="D19" t="s">
+        <v>254</v>
+      </c>
+      <c r="E19" t="s">
         <v>308</v>
       </c>
-      <c r="D19" t="s">
-        <v>259</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>309</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>310</v>
-      </c>
-      <c r="G19" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -7872,13 +8094,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C20" t="s">
+        <v>311</v>
+      </c>
+      <c r="D20" t="s">
         <v>312</v>
-      </c>
-      <c r="D20" t="s">
-        <v>259</v>
       </c>
       <c r="E20" t="s">
         <v>313</v>
@@ -7895,13 +8117,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C21" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D21" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="E21" t="s">
         <v>318</v>
@@ -7918,45 +8140,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D22" t="s">
+        <v>254</v>
+      </c>
+      <c r="E22" t="s">
         <v>322</v>
       </c>
-      <c r="D22" t="s">
-        <v>259</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>323</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>324</v>
-      </c>
-      <c r="G22" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>330</v>
-      </c>
-      <c r="C23" t="s">
-        <v>326</v>
-      </c>
-      <c r="D23" t="s">
-        <v>259</v>
-      </c>
-      <c r="E23" t="s">
-        <v>327</v>
-      </c>
-      <c r="F23" t="s">
-        <v>328</v>
-      </c>
-      <c r="G23" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -7966,17 +8165,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView topLeftCell="E15" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G36"/>
+    <sheetView topLeftCell="E43" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="61.42578125" customWidth="1"/>
     <col min="8" max="8" width="65.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.28515625" customWidth="1"/>
@@ -8002,10 +8202,10 @@
         <v>121</v>
       </c>
       <c r="G1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="H1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="J1" t="s">
         <v>214</v>
@@ -8031,7 +8231,7 @@
         <v>213</v>
       </c>
       <c r="D2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E2" t="s">
         <v>164</v>
@@ -8040,10 +8240,10 @@
         <v>165</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -8052,11 +8252,10 @@
         <v>213</v>
       </c>
       <c r="M2" t="s">
-        <v>451</v>
-      </c>
-      <c r="N2" t="str">
-        <f>IF(K2=K1,M1&amp;". "&amp;M2,M2)</f>
-        <v xml:space="preserve">giả heo ăn hổ </v>
+        <v>446</v>
+      </c>
+      <c r="N2" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -8079,10 +8278,10 @@
         <v>181</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H3" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -8093,9 +8292,8 @@
       <c r="M3" t="s">
         <v>179</v>
       </c>
-      <c r="N3" t="str">
-        <f>IF(K3=K2,N2&amp;". "&amp;M3,M3)</f>
-        <v>giả heo ăn hổ . Hư trương thanh thế</v>
+      <c r="N3" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -8118,10 +8316,10 @@
         <v>197</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="H4" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -8135,13 +8333,12 @@
       <c r="M4" t="s">
         <v>195</v>
       </c>
-      <c r="N4" t="str">
-        <f t="shared" ref="N4:N36" si="0">IF(K4=K3,N3&amp;". "&amp;M4,M4)</f>
-        <v>giả heo ăn hổ . Hư trương thanh thế. Khổ nhục kế</v>
+      <c r="N4" t="s">
+        <v>550</v>
       </c>
       <c r="O4" t="str">
-        <f>J4&amp;"_"&amp;N4</f>
-        <v>1_giả heo ăn hổ . Hư trương thanh thế. Khổ nhục kế</v>
+        <f>J4&amp;"_"&amp;L4&amp;"_"&amp;N4</f>
+        <v>1_giả vờ_giả heo ăn hổ . Hư trương thanh thế. Khổ nhục kế</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -8152,7 +8349,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D5" t="s">
         <v>161</v>
@@ -8164,23 +8361,22 @@
         <v>163</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H5" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M5" t="s">
         <v>161</v>
       </c>
-      <c r="N5" t="str">
-        <f t="shared" si="0"/>
-        <v>Cầm tặc cầm vương</v>
+      <c r="N5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -8191,7 +8387,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D6" t="s">
         <v>136</v>
@@ -8203,23 +8399,22 @@
         <v>138</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="H6" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M6" t="s">
         <v>136</v>
       </c>
-      <c r="N6" t="str">
-        <f t="shared" si="0"/>
-        <v>Cầm tặc cầm vương. Tiên phát chế nhân</v>
+      <c r="N6" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -8230,7 +8425,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D7" t="s">
         <v>171</v>
@@ -8242,23 +8437,22 @@
         <v>173</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="H7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M7" t="s">
         <v>171</v>
       </c>
-      <c r="N7" t="str">
-        <f t="shared" si="0"/>
-        <v>Cầm tặc cầm vương. Tiên phát chế nhân. Dĩ dật đãi lao</v>
+      <c r="N7" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -8269,35 +8463,34 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D8" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E8" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F8" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H8" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M8" t="s">
-        <v>472</v>
-      </c>
-      <c r="N8" t="str">
-        <f t="shared" si="0"/>
-        <v>Cầm tặc cầm vương. Tiên phát chế nhân. Dĩ dật đãi lao. Ám, độc, bẫy, dụ, phạm quy</v>
+        <v>467</v>
+      </c>
+      <c r="N8" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -8308,7 +8501,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D9" t="s">
         <v>158</v>
@@ -8320,10 +8513,10 @@
         <v>160</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="H9" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -8332,18 +8525,17 @@
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M9" t="s">
         <v>158</v>
       </c>
-      <c r="N9" t="str">
-        <f t="shared" si="0"/>
-        <v>Cầm tặc cầm vương. Tiên phát chế nhân. Dĩ dật đãi lao. Ám, độc, bẫy, dụ, phạm quy. Không thành kế</v>
+      <c r="N9" t="s">
+        <v>554</v>
       </c>
       <c r="O9" t="str">
-        <f>J9&amp;"_"&amp;N9</f>
-        <v>2_Cầm tặc cầm vương. Tiên phát chế nhân. Dĩ dật đãi lao. Ám, độc, bẫy, dụ, phạm quy. Không thành kế</v>
+        <f>J9&amp;"_"&amp;L9&amp;"_"&amp;N9</f>
+        <v>2_kỹ năng_Cầm tặc cầm vương. Tiên phát chế nhân. Dĩ dật đãi lao. Ám, độc, bẫy, dụ, phạm quy. Không thành kế</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -8354,10 +8546,10 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D10" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E10" t="s">
         <v>193</v>
@@ -8366,23 +8558,22 @@
         <v>194</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H10" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="K10">
         <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="M10" t="s">
-        <v>470</v>
-      </c>
-      <c r="N10" t="str">
-        <f t="shared" si="0"/>
-        <v>Hóa thù thành bạn, Muốn bắt phải thả</v>
+        <v>465</v>
+      </c>
+      <c r="N10" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -8393,10 +8584,10 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D11" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E11" t="s">
         <v>200</v>
@@ -8405,23 +8596,22 @@
         <v>201</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H11" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="M11" t="s">
-        <v>457</v>
-      </c>
-      <c r="N11" t="str">
-        <f t="shared" si="0"/>
-        <v>Hóa thù thành bạn, Muốn bắt phải thả. Mượn lực lượng - mượn xác hoàn hồn</v>
+        <v>452</v>
+      </c>
+      <c r="N11" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -8432,19 +8622,19 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D12" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E12" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H12" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="J12">
         <v>3</v>
@@ -8453,18 +8643,17 @@
         <v>3</v>
       </c>
       <c r="L12" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="M12" t="s">
-        <v>445</v>
-      </c>
-      <c r="N12" t="str">
-        <f t="shared" si="0"/>
-        <v>Hóa thù thành bạn, Muốn bắt phải thả. Mượn lực lượng - mượn xác hoàn hồn. tập hợp đồng minh</v>
+        <v>440</v>
+      </c>
+      <c r="N12" t="s">
+        <v>556</v>
       </c>
       <c r="O12" t="str">
-        <f>J12&amp;"_"&amp;N12</f>
-        <v>3_Hóa thù thành bạn, Muốn bắt phải thả. Mượn lực lượng - mượn xác hoàn hồn. tập hợp đồng minh</v>
+        <f>J12&amp;"_"&amp;L12&amp;"_"&amp;N12</f>
+        <v>3_thu phục_Hóa thù thành bạn, Muốn bắt phải thả. Mượn lực lượng - mượn xác hoàn hồn. tập hợp đồng minh</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -8475,7 +8664,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D13" t="s">
         <v>122</v>
@@ -8487,23 +8676,22 @@
         <v>124</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="H13" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="K13">
         <v>4</v>
       </c>
       <c r="L13" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="M13" t="s">
         <v>122</v>
       </c>
-      <c r="N13" t="str">
-        <f t="shared" si="0"/>
-        <v>Dương đông kích tây</v>
+      <c r="N13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -8514,7 +8702,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D14" t="s">
         <v>215</v>
@@ -8526,23 +8714,22 @@
         <v>151</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H14" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="K14">
         <v>4</v>
       </c>
       <c r="L14" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="M14" t="s">
         <v>215</v>
       </c>
-      <c r="N14" t="str">
-        <f t="shared" si="0"/>
-        <v>Dương đông kích tây. Ám độ trần thương</v>
+      <c r="N14" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -8553,7 +8740,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D15" t="s">
         <v>147</v>
@@ -8565,23 +8752,22 @@
         <v>149</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="H15" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="K15">
         <v>4</v>
       </c>
       <c r="L15" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="M15" t="s">
         <v>147</v>
       </c>
-      <c r="N15" t="str">
-        <f t="shared" si="0"/>
-        <v>Dương đông kích tây. Ám độ trần thương. Man thiên quá hải</v>
+      <c r="N15" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -8592,7 +8778,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D16" t="s">
         <v>125</v>
@@ -8604,10 +8790,10 @@
         <v>127</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="H16" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="J16">
         <v>4</v>
@@ -8616,18 +8802,17 @@
         <v>4</v>
       </c>
       <c r="L16" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="M16" t="s">
         <v>125</v>
       </c>
-      <c r="N16" t="str">
-        <f t="shared" si="0"/>
-        <v>Dương đông kích tây. Ám độ trần thương. Man thiên quá hải. Điệu hổ ly sơn</v>
+      <c r="N16" t="s">
+        <v>559</v>
       </c>
       <c r="O16" t="str">
-        <f>J16&amp;"_"&amp;N16</f>
-        <v>4_Dương đông kích tây. Ám độ trần thương. Man thiên quá hải. Điệu hổ ly sơn</v>
+        <f>J16&amp;"_"&amp;L16&amp;"_"&amp;N16</f>
+        <v>4_đánh lạc hướng_Dương đông kích tây. Ám độ trần thương. Man thiên quá hải. Điệu hổ ly sơn</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -8638,10 +8823,10 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D17" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E17" t="s">
         <v>182</v>
@@ -8650,23 +8835,22 @@
         <v>183</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="H17" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="K17">
         <v>5</v>
       </c>
       <c r="L17" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="M17" t="s">
-        <v>452</v>
-      </c>
-      <c r="N17" t="str">
-        <f t="shared" si="0"/>
-        <v>Rút củi đáy nồi</v>
+        <v>447</v>
+      </c>
+      <c r="N17" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -8677,10 +8861,10 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D18" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E18" t="s">
         <v>166</v>
@@ -8689,23 +8873,22 @@
         <v>167</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="H18" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="K18">
         <v>5</v>
       </c>
       <c r="L18" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="M18" t="s">
-        <v>453</v>
-      </c>
-      <c r="N18" t="str">
-        <f t="shared" si="0"/>
-        <v>Rút củi đáy nồi. Thâu lương hoán trụ</v>
+        <v>448</v>
+      </c>
+      <c r="N18" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -8716,10 +8899,10 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D19" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E19" t="s">
         <v>140</v>
@@ -8728,23 +8911,22 @@
         <v>141</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="H19" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="K19">
         <v>5</v>
       </c>
       <c r="L19" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="M19" t="s">
-        <v>465</v>
-      </c>
-      <c r="N19" t="str">
-        <f t="shared" si="0"/>
-        <v>Rút củi đáy nồi. Thâu lương hoán trụ. Mượn đao giết người, Mượn hoàn cảnh, Mượn thời cơ</v>
+        <v>460</v>
+      </c>
+      <c r="N19" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -8755,35 +8937,34 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
+        <v>458</v>
+      </c>
+      <c r="D20" t="s">
         <v>463</v>
       </c>
-      <c r="D20" t="s">
-        <v>468</v>
-      </c>
       <c r="E20" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F20" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="H20" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="K20">
         <v>5</v>
       </c>
       <c r="L20" t="s">
+        <v>458</v>
+      </c>
+      <c r="M20" t="s">
         <v>463</v>
       </c>
-      <c r="M20" t="s">
-        <v>468</v>
-      </c>
-      <c r="N20" t="str">
-        <f t="shared" si="0"/>
-        <v>Rút củi đáy nồi. Thâu lương hoán trụ. Mượn đao giết người, Mượn hoàn cảnh, Mượn thời cơ. hãm hại người thân</v>
+      <c r="N20" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -8794,10 +8975,10 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D21" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E21" t="s">
         <v>142</v>
@@ -8806,10 +8987,10 @@
         <v>143</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="H21" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="J21">
         <v>5</v>
@@ -8818,18 +8999,17 @@
         <v>5</v>
       </c>
       <c r="L21" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="M21" t="s">
-        <v>446</v>
-      </c>
-      <c r="N21" t="str">
-        <f t="shared" si="0"/>
-        <v>Rút củi đáy nồi. Thâu lương hoán trụ. Mượn đao giết người, Mượn hoàn cảnh, Mượn thời cơ. hãm hại người thân. vu oan giá họa</v>
+        <v>441</v>
+      </c>
+      <c r="N21" t="s">
+        <v>563</v>
       </c>
       <c r="O21" t="str">
-        <f>J21&amp;"_"&amp;N21</f>
-        <v>5_Rút củi đáy nồi. Thâu lương hoán trụ. Mượn đao giết người, Mượn hoàn cảnh, Mượn thời cơ. hãm hại người thân. vu oan giá họa</v>
+        <f>J21&amp;"_"&amp;L21&amp;"_"&amp;N21</f>
+        <v>5_quan hệ 2 bên_Rút củi đáy nồi. Thâu lương hoán trụ. Mượn đao giết người, Mượn hoàn cảnh, Mượn thời cơ. hãm hại người thân. vu oan giá họa</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -8840,35 +9020,34 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D22" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E22" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F22" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H22" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="K22">
         <v>6</v>
       </c>
       <c r="L22" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="M22" t="s">
-        <v>447</v>
-      </c>
-      <c r="N22" t="str">
-        <f t="shared" si="0"/>
-        <v>Kế li gián</v>
+        <v>442</v>
+      </c>
+      <c r="N22" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -8879,10 +9058,10 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D23" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E23" t="s">
         <v>134</v>
@@ -8891,23 +9070,22 @@
         <v>135</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="H23" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="K23">
         <v>6</v>
       </c>
       <c r="L23" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="M23" t="s">
-        <v>449</v>
-      </c>
-      <c r="N23" t="str">
-        <f t="shared" si="0"/>
-        <v>Kế li gián. tin đồn, gây rối-Vô trung sinh hữu</v>
+        <v>444</v>
+      </c>
+      <c r="N23" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -8918,7 +9096,7 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D24" t="s">
         <v>216</v>
@@ -8930,23 +9108,22 @@
         <v>192</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H24" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="K24">
         <v>6</v>
       </c>
       <c r="L24" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="M24" t="s">
         <v>216</v>
       </c>
-      <c r="N24" t="str">
-        <f t="shared" si="0"/>
-        <v>Kế li gián. tin đồn, gây rối-Vô trung sinh hữu. thuận tay dắt dê - Thuận thủ khiên dương</v>
+      <c r="N24" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -8957,7 +9134,7 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D25" t="s">
         <v>131</v>
@@ -8969,23 +9146,22 @@
         <v>133</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H25" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="K25">
         <v>6</v>
       </c>
       <c r="L25" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="M25" t="s">
         <v>131</v>
       </c>
-      <c r="N25" t="str">
-        <f t="shared" si="0"/>
-        <v>Kế li gián. tin đồn, gây rối-Vô trung sinh hữu. thuận tay dắt dê - Thuận thủ khiên dương. Sấn hỏa đả kiếp</v>
+      <c r="N25" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -8996,7 +9172,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D26" t="s">
         <v>176</v>
@@ -9008,10 +9184,10 @@
         <v>178</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="H26" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="J26">
         <v>6</v>
@@ -9020,18 +9196,17 @@
         <v>6</v>
       </c>
       <c r="L26" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="M26" t="s">
         <v>176</v>
       </c>
-      <c r="N26" t="str">
-        <f t="shared" si="0"/>
-        <v>Kế li gián. tin đồn, gây rối-Vô trung sinh hữu. thuận tay dắt dê - Thuận thủ khiên dương. Sấn hỏa đả kiếp. Lạc tỉnh hạ thạch</v>
+      <c r="N26" t="s">
+        <v>567</v>
       </c>
       <c r="O26" t="str">
-        <f>J26&amp;"_"&amp;N26</f>
-        <v>6_Kế li gián. tin đồn, gây rối-Vô trung sinh hữu. thuận tay dắt dê - Thuận thủ khiên dương. Sấn hỏa đả kiếp. Lạc tỉnh hạ thạch</v>
+        <f>J26&amp;"_"&amp;L26&amp;"_"&amp;N26</f>
+        <v>6_quan hệ 3 bên_Kế li gián. tin đồn, gây rối-Vô trung sinh hữu. thuận tay dắt dê - Thuận thủ khiên dương. Sấn hỏa đả kiếp. Lạc tỉnh hạ thạch</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -9042,10 +9217,10 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D27" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E27" t="s">
         <v>198</v>
@@ -9054,23 +9229,22 @@
         <v>199</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="H27" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="K27">
         <v>7</v>
       </c>
       <c r="L27" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="M27" t="s">
-        <v>448</v>
-      </c>
-      <c r="N27" t="str">
-        <f t="shared" si="0"/>
-        <v>Thả tép bắt tôm</v>
+        <v>443</v>
+      </c>
+      <c r="N27" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -9081,7 +9255,7 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D28" t="s">
         <v>128</v>
@@ -9093,10 +9267,10 @@
         <v>130</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="H28" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="J28">
         <v>7</v>
@@ -9105,18 +9279,17 @@
         <v>7</v>
       </c>
       <c r="L28" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="M28" t="s">
         <v>128</v>
       </c>
-      <c r="N28" t="str">
-        <f t="shared" si="0"/>
-        <v>Thả tép bắt tôm. Mỹ nhân kế</v>
+      <c r="N28" t="s">
+        <v>568</v>
       </c>
       <c r="O28" t="str">
-        <f>J28&amp;"_"&amp;N28</f>
-        <v>7_Thả tép bắt tôm. Mỹ nhân kế</v>
+        <f>J28&amp;"_"&amp;L28&amp;"_"&amp;N28</f>
+        <v>7_mong_Thả tép bắt tôm. Mỹ nhân kế</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -9127,10 +9300,10 @@
         <v>8</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D29" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E29" t="s">
         <v>174</v>
@@ -9139,23 +9312,22 @@
         <v>175</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H29" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="K29">
         <v>8</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="M29" t="s">
-        <v>476</v>
-      </c>
-      <c r="N29" t="str">
-        <f t="shared" si="0"/>
-        <v>Chỉ tang mắng hòe</v>
+        <v>471</v>
+      </c>
+      <c r="N29" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -9166,10 +9338,10 @@
         <v>8</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D30" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E30" t="s">
         <v>184</v>
@@ -9178,23 +9350,22 @@
         <v>185</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H30" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="K30">
         <v>8</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="M30" t="s">
-        <v>458</v>
-      </c>
-      <c r="N30" t="str">
-        <f t="shared" si="0"/>
-        <v>Chỉ tang mắng hòe. Giết gà dọa khỉ</v>
+        <v>453</v>
+      </c>
+      <c r="N30" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -9205,22 +9376,22 @@
         <v>8</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D31" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E31" t="s">
         <v>139</v>
       </c>
       <c r="F31" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="H31" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="J31">
         <v>8</v>
@@ -9229,18 +9400,17 @@
         <v>8</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="M31" t="s">
-        <v>475</v>
-      </c>
-      <c r="N31" t="str">
-        <f t="shared" si="0"/>
-        <v>Chỉ tang mắng hòe. Giết gà dọa khỉ. Đánh rắn động cỏ</v>
+        <v>470</v>
+      </c>
+      <c r="N31" t="s">
+        <v>570</v>
       </c>
       <c r="O31" t="str">
-        <f>J31&amp;"_"&amp;N31</f>
-        <v>8_Chỉ tang mắng hòe. Giết gà dọa khỉ. Đánh rắn động cỏ</v>
+        <f>J31&amp;"_"&amp;L31&amp;"_"&amp;N31</f>
+        <v>8_lo_Chỉ tang mắng hòe. Giết gà dọa khỉ. Đánh rắn động cỏ</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -9251,7 +9421,7 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D32" t="s">
         <v>144</v>
@@ -9263,23 +9433,22 @@
         <v>146</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H32" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="K32">
         <v>9</v>
       </c>
       <c r="L32" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="M32" t="s">
         <v>144</v>
       </c>
-      <c r="N32" t="str">
-        <f t="shared" si="0"/>
-        <v>Khích tướng kế</v>
+      <c r="N32" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -9290,7 +9459,7 @@
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D33" t="s">
         <v>208</v>
@@ -9302,10 +9471,10 @@
         <v>210</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H33" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="J33">
         <v>9</v>
@@ -9314,18 +9483,17 @@
         <v>9</v>
       </c>
       <c r="L33" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="M33" t="s">
         <v>208</v>
       </c>
-      <c r="N33" t="str">
-        <f t="shared" si="0"/>
-        <v>Khích tướng kế. Kích kế</v>
+      <c r="N33" t="s">
+        <v>571</v>
       </c>
       <c r="O33" t="str">
-        <f>J33&amp;"_"&amp;N33</f>
-        <v>9_Khích tướng kế. Kích kế</v>
+        <f>J33&amp;"_"&amp;L33&amp;"_"&amp;N33</f>
+        <v>9_tính cách_Khích tướng kế. Kích kế</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -9348,10 +9516,10 @@
         <v>204</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H34" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="K34">
         <v>10</v>
@@ -9362,9 +9530,8 @@
       <c r="M34" t="s">
         <v>202</v>
       </c>
-      <c r="N34" t="str">
-        <f t="shared" si="0"/>
-        <v>Tẩu kế</v>
+      <c r="N34" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -9387,10 +9554,10 @@
         <v>157</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H35" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="K35">
         <v>10</v>
@@ -9401,9 +9568,8 @@
       <c r="M35" t="s">
         <v>155</v>
       </c>
-      <c r="N35" t="str">
-        <f t="shared" si="0"/>
-        <v>Tẩu kế. Kim thiền thoát xác</v>
+      <c r="N35" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -9417,7 +9583,7 @@
         <v>211</v>
       </c>
       <c r="D36" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E36" t="s">
         <v>189</v>
@@ -9426,10 +9592,10 @@
         <v>190</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H36" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="J36">
         <v>10</v>
@@ -9441,15 +9607,14 @@
         <v>211</v>
       </c>
       <c r="M36" t="s">
-        <v>456</v>
-      </c>
-      <c r="N36" t="str">
-        <f t="shared" si="0"/>
-        <v>Tẩu kế. Kim thiền thoát xác. thay mận đổi đào</v>
+        <v>451</v>
+      </c>
+      <c r="N36" t="s">
+        <v>573</v>
       </c>
       <c r="O36" t="str">
-        <f>J36&amp;"_"&amp;N36</f>
-        <v>10_Tẩu kế. Kim thiền thoát xác. thay mận đổi đào</v>
+        <f>J36&amp;"_"&amp;L36&amp;"_"&amp;N36</f>
+        <v>10_chạy_Tẩu kế. Kim thiền thoát xác. thay mận đổi đào</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -9464,7 +9629,7 @@
       </c>
       <c r="G37" s="5"/>
       <c r="H37" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -9479,7 +9644,7 @@
       </c>
       <c r="G38" s="5"/>
       <c r="H38" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -9494,7 +9659,7 @@
       </c>
       <c r="G39" s="5"/>
       <c r="H39" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -9512,19 +9677,125 @@
       </c>
       <c r="G40" s="5"/>
       <c r="H40" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="L40" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
-      <c r="E45" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>513</v>
-      </c>
+    <row r="45" spans="1:15" ht="30">
+      <c r="E45" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="F45" t="s">
+        <v>585</v>
+      </c>
+      <c r="G45" t="s">
+        <v>594</v>
+      </c>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:15" ht="60">
+      <c r="E46" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="F46" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="60">
+      <c r="E47" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="F47" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="45">
+      <c r="E48" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="F48" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" ht="75">
+      <c r="E49" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="F49" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" ht="75">
+      <c r="E50" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="F50" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" ht="30">
+      <c r="E51" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="F51" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" ht="30">
+      <c r="E52" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="F52" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" ht="30">
+      <c r="E53" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="F53" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" ht="30">
+      <c r="E54" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="F54" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6">
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="5:6">
+      <c r="E57" s="9"/>
+    </row>
+    <row r="58" spans="5:6">
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" spans="5:6">
+      <c r="E59" s="9"/>
+    </row>
+    <row r="60" spans="5:6">
+      <c r="E60" s="9"/>
+    </row>
+    <row r="61" spans="5:6">
+      <c r="E61" s="9"/>
+    </row>
+    <row r="62" spans="5:6">
+      <c r="E62" s="9"/>
+    </row>
+    <row r="63" spans="5:6">
+      <c r="E63" s="9"/>
+    </row>
+    <row r="64" spans="5:6">
+      <c r="E64" s="9"/>
+    </row>
+    <row r="65" spans="5:5">
+      <c r="E65" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A2:F43">
@@ -9556,19 +9827,19 @@
         <v>118</v>
       </c>
       <c r="B1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C1" t="s">
         <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -9576,19 +9847,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9596,19 +9867,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -9616,19 +9887,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D4" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F4" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -9636,19 +9907,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C5" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E5" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F5" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9656,19 +9927,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C6" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D6" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E6" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9676,19 +9947,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9696,19 +9967,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C8" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D8" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E8" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F8" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -9716,19 +9987,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C9" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D9" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E9" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F9" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -9736,19 +10007,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C10" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D10" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E10" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -9756,19 +10027,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C11" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D11" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E11" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F11" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -9776,19 +10047,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C12" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D12" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E12" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F12" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -9796,19 +10067,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C13" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D13" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E13" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F13" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -9816,19 +10087,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C14" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F14" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -9836,19 +10107,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C15" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D15" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F15" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -9856,19 +10127,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C16" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D16" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E16" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F16" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -9876,19 +10147,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C17" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D17" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E17" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F17" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -9896,19 +10167,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C18" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D18" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E18" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F18" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -9916,19 +10187,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C19" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D19" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E19" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F19" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -9936,19 +10207,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C20" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D20" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E20" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F20" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -9956,19 +10227,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C21" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D21" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E21" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F21" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -9976,19 +10247,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C22" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D22" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E22" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F22" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -9996,19 +10267,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C23" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D23" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E23" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F23" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -10016,19 +10287,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C24" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D24" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E24" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F24" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -10036,16 +10307,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C25" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D25" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E25" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
